--- a/soberano/test_cases/warehouse_modify_test_cases.xlsx
+++ b/soberano/test_cases/warehouse_modify_test_cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
   <si>
     <t xml:space="preserve">TC Number</t>
   </si>
@@ -55,10 +55,10 @@
     <t xml:space="preserve">User2 is allowed to modify warehouse</t>
   </si>
   <si>
-    <t xml:space="preserve">procurement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w5</t>
+    <t xml:space="preserve">mwarehouse2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mw2</t>
   </si>
   <si>
     <t xml:space="preserve">yes</t>
@@ -67,16 +67,16 @@
     <t xml:space="preserve">User3 is allowed to modify warehouse</t>
   </si>
   <si>
-    <t xml:space="preserve">sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w7</t>
+    <t xml:space="preserve">mwarehouse3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mw3</t>
   </si>
   <si>
     <t xml:space="preserve">User4 is NOT allowed to modify warehouse</t>
   </si>
   <si>
-    <t xml:space="preserve">mwarehouse2</t>
+    <t xml:space="preserve">mwarehouse4</t>
   </si>
   <si>
     <t xml:space="preserve">mw4</t>
@@ -91,16 +91,16 @@
     <t xml:space="preserve">User7 is allowed to modify warehouse</t>
   </si>
   <si>
-    <t xml:space="preserve">mwarehouse3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mw3</t>
+    <t xml:space="preserve">mwarehouse5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mw5</t>
   </si>
   <si>
     <t xml:space="preserve">User8 is NOT allowed to modify warehouse</t>
   </si>
   <si>
-    <t xml:space="preserve">mwarehouse4</t>
+    <t xml:space="preserve">mwarehouse6</t>
   </si>
   <si>
     <t xml:space="preserve">mw6</t>
@@ -112,16 +112,16 @@
     <t xml:space="preserve">User10 is allowed to modify warehouse</t>
   </si>
   <si>
-    <t xml:space="preserve">mwarehouse5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mw2</t>
+    <t xml:space="preserve">mwarehouse7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mw7</t>
   </si>
   <si>
     <t xml:space="preserve">User11 is allowed to modify warehouse</t>
   </si>
   <si>
-    <t xml:space="preserve">mwarehouse6</t>
+    <t xml:space="preserve">mwarehouse8</t>
   </si>
   <si>
     <t xml:space="preserve">mw8</t>
@@ -130,7 +130,7 @@
     <t xml:space="preserve">User12 is allowed to modify warehouse</t>
   </si>
   <si>
-    <t xml:space="preserve">mwarehouse7</t>
+    <t xml:space="preserve">mwarehouse9</t>
   </si>
   <si>
     <t xml:space="preserve">mw9</t>
@@ -139,7 +139,7 @@
     <t xml:space="preserve">User13 is NOT allowed to modify warehouse</t>
   </si>
   <si>
-    <t xml:space="preserve">mwarehouse8</t>
+    <t xml:space="preserve">mwarehouse10</t>
   </si>
   <si>
     <t xml:space="preserve">mw10</t>
@@ -151,21 +151,12 @@
     <t xml:space="preserve">User15 is allowed to modify warehouse</t>
   </si>
   <si>
-    <t xml:space="preserve">mwarehouse9</t>
-  </si>
-  <si>
     <t xml:space="preserve">User1 tries to modify another warehouse with the same name and fails</t>
   </si>
   <si>
-    <t xml:space="preserve">mw11</t>
-  </si>
-  <si>
     <t xml:space="preserve">User1 tries to modify another warehouse with the same code and fails</t>
   </si>
   <si>
-    <t xml:space="preserve">mwarehouse10</t>
-  </si>
-  <si>
     <t xml:space="preserve">check mw1 data is correctly shown in details panel</t>
   </si>
   <si>
@@ -178,13 +169,13 @@
     <t xml:space="preserve">check mw4 data is correctly shown in details panel</t>
   </si>
   <si>
-    <t xml:space="preserve">check w5 data is correctly shown in details panel</t>
+    <t xml:space="preserve">check mw5 data is correctly shown in details panel</t>
   </si>
   <si>
     <t xml:space="preserve">check mw6 data is correctly shown in details panel</t>
   </si>
   <si>
-    <t xml:space="preserve">check w7 data is correctly shown in details panel</t>
+    <t xml:space="preserve">check mw7 data is correctly shown in details panel</t>
   </si>
   <si>
     <t xml:space="preserve">check mw8 data is correctly shown in details panel</t>
@@ -338,8 +329,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="15:15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -503,10 +494,10 @@
         <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -526,7 +517,7 @@
         <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -546,7 +537,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -563,7 +554,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -583,7 +574,7 @@
         <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
@@ -603,10 +594,10 @@
         <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -626,7 +617,7 @@
         <v>9</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -643,10 +634,10 @@
         <v>40</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -663,10 +654,10 @@
         <v>40</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -677,13 +668,13 @@
         <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -694,13 +685,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>13</v>
@@ -714,13 +705,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>13</v>
@@ -734,7 +725,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -742,7 +733,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -750,7 +741,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C21" s="0"/>
       <c r="D21" s="0"/>
@@ -762,7 +753,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -770,7 +761,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -778,7 +769,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -786,7 +777,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -794,7 +785,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -802,7 +793,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,7 +801,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
